--- a/InputData/indst/BNRbI/BAU Nonfuel Revenue by Industry.xlsx
+++ b/InputData/indst/BNRbI/BAU Nonfuel Revenue by Industry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\indst\BNRbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\indst\BNRbI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643CDFAA-3E93-4F4C-AC57-04029D26C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,15 @@
     <definedName name="currency_conv">About!#REF!</definedName>
     <definedName name="Preferences.moneyunits">[1]Preferences!$C$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -838,7 +842,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1392,17 +1396,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7"/>
-    <cellStyle name="Footnotes: top row" xfId="3"/>
-    <cellStyle name="Header: bottom row" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Template-EUKLEMS-output" xfId="10"/>
-    <cellStyle name="Parent row" xfId="4"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal_Template-EUKLEMS-output" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1632,6 +1636,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1667,6 +1688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1842,24 +1880,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="2" width="64.1328125" customWidth="1"/>
-    <col min="4" max="4" width="55.59765625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
+    <col min="4" max="4" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1908,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>234</v>
       </c>
@@ -1878,7 +1916,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>238</v>
       </c>
@@ -1886,7 +1924,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>235</v>
       </c>
@@ -1894,7 +1932,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>236</v>
       </c>
@@ -1902,7 +1940,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
         <v>239</v>
       </c>
@@ -1910,10 +1948,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="65"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1959,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1929,7 +1967,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -1937,7 +1975,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -1945,17 +1983,17 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -1963,12 +2001,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -1976,7 +2014,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -1984,127 +2022,127 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>213</v>
       </c>
@@ -2113,7 +2151,7 @@
       </c>
       <c r="C48" s="51"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="49">
         <v>2017</v>
       </c>
@@ -2121,7 +2159,7 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>214</v>
       </c>
@@ -2129,12 +2167,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="49">
         <v>2017</v>
       </c>
@@ -2149,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2159,14 +2197,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="20.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>107</v>
       </c>
@@ -2273,8 +2311,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
         <v>106</v>
       </c>
@@ -2285,7 +2323,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="17" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +2336,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
         <v>101</v>
       </c>
@@ -2309,7 +2347,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>99</v>
       </c>
@@ -2320,7 +2358,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>97</v>
       </c>
@@ -2328,12 +2366,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>2</v>
       </c>
@@ -2443,7 +2481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>94</v>
       </c>
@@ -2553,8 +2591,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>93</v>
       </c>
@@ -2667,7 +2705,7 @@
         <v>1.8898000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>91</v>
       </c>
@@ -2780,17 +2818,17 @@
         <v>5.8120000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>87</v>
       </c>
@@ -2903,7 +2941,7 @@
         <v>1.1761000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3016,7 +3054,7 @@
         <v>1.107E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>84</v>
       </c>
@@ -3129,12 +3167,12 @@
         <v>1.4662E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>82</v>
       </c>
@@ -3247,7 +3285,7 @@
         <v>1.7756000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>80</v>
       </c>
@@ -3360,7 +3398,7 @@
         <v>6.1960000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -3473,7 +3511,7 @@
         <v>-1.7729999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>76</v>
       </c>
@@ -3586,7 +3624,7 @@
         <v>1.0227999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>74</v>
       </c>
@@ -3699,7 +3737,7 @@
         <v>1.4657999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -3812,7 +3850,7 @@
         <v>9.9909999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -3925,7 +3963,7 @@
         <v>1.7110000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -4038,7 +4076,7 @@
         <v>1.9053E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>66</v>
       </c>
@@ -4151,7 +4189,7 @@
         <v>1.5769999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>64</v>
       </c>
@@ -4264,7 +4302,7 @@
         <v>-2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>62</v>
       </c>
@@ -4377,7 +4415,7 @@
         <v>1.9487000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>60</v>
       </c>
@@ -4490,7 +4528,7 @@
         <v>1.8273000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>58</v>
       </c>
@@ -4603,7 +4641,7 @@
         <v>5.829E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>56</v>
       </c>
@@ -4716,7 +4754,7 @@
         <v>2.2030000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>54</v>
       </c>
@@ -4829,7 +4867,7 @@
         <v>-2.575E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>52</v>
       </c>
@@ -4942,7 +4980,7 @@
         <v>-2.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>50</v>
       </c>
@@ -5055,7 +5093,7 @@
         <v>-4.176E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>48</v>
       </c>
@@ -5168,7 +5206,7 @@
         <v>2.3494999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>46</v>
       </c>
@@ -5281,7 +5319,7 @@
         <v>1.8002000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>44</v>
       </c>
@@ -5394,7 +5432,7 @@
         <v>1.2220999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>42</v>
       </c>
@@ -5507,7 +5545,7 @@
         <v>1.6796999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>40</v>
       </c>
@@ -5620,7 +5658,7 @@
         <v>1.9954E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>38</v>
       </c>
@@ -5733,7 +5771,7 @@
         <v>9.5680000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>36</v>
       </c>
@@ -5846,7 +5884,7 @@
         <v>-7.7800000000000005E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>34</v>
       </c>
@@ -5959,7 +5997,7 @@
         <v>8.8459999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>32</v>
       </c>
@@ -6072,7 +6110,7 @@
         <v>2.0156E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6223,7 @@
         <v>1.8870000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>28</v>
       </c>
@@ -6298,7 +6336,7 @@
         <v>2.6143E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>26</v>
       </c>
@@ -6411,7 +6449,7 @@
         <v>2.5361000000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>24</v>
       </c>
@@ -6524,7 +6562,7 @@
         <v>2.5756000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>22</v>
       </c>
@@ -6637,7 +6675,7 @@
         <v>2.6575999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>20</v>
       </c>
@@ -6750,7 +6788,7 @@
         <v>2.8815E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>18</v>
       </c>
@@ -6863,8 +6901,8 @@
         <v>1.7311E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="69" t="s">
         <v>16</v>
       </c>
@@ -6904,17 +6942,17 @@
       <c r="AJ62" s="69"/>
       <c r="AK62" s="69"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>13</v>
       </c>
@@ -6929,27 +6967,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1328125" customWidth="1"/>
-    <col min="2" max="7" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" customWidth="1"/>
-    <col min="11" max="11" width="15.86328125" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" customWidth="1"/>
-    <col min="13" max="13" width="12.73046875" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" customWidth="1"/>
-    <col min="15" max="15" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>151</v>
       </c>
@@ -6965,7 +7003,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>140</v>
       </c>
@@ -6984,7 +7022,7 @@
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>141</v>
       </c>
@@ -7025,30 +7063,30 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B4" s="37">
-        <v>256.72710341881253</v>
+        <v>247.48931613592424</v>
       </c>
       <c r="C4" s="37">
-        <v>339.88390268513842</v>
+        <v>307.2374428508856</v>
       </c>
       <c r="D4" s="37">
-        <v>461.44227908106046</v>
+        <v>386.91439847390859</v>
       </c>
       <c r="E4" s="37">
-        <v>625.33477993704878</v>
+        <v>492.3074648441073</v>
       </c>
       <c r="F4" s="37">
-        <v>805.60534521496425</v>
+        <v>619.13161056618321</v>
       </c>
       <c r="G4" s="37">
-        <v>946.23381421290367</v>
+        <v>743.77980235583573</v>
       </c>
       <c r="H4" s="37">
-        <v>1041.9578575223438</v>
+        <v>858.78754026477725</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>150</v>
@@ -7069,85 +7107,85 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="37">
-        <v>33.656139767011304</v>
+        <v>32.88483354931121</v>
       </c>
       <c r="C5" s="37">
-        <v>35.886516668721207</v>
+        <v>34.817608960383609</v>
       </c>
       <c r="D5" s="37">
-        <v>36.80309399789256</v>
+        <v>36.046717890236152</v>
       </c>
       <c r="E5" s="37">
-        <v>37.026970613068343</v>
+        <v>36.62531598947983</v>
       </c>
       <c r="F5" s="37">
-        <v>37.06953803246342</v>
+        <v>36.962046351190068</v>
       </c>
       <c r="G5" s="37">
-        <v>37.07183116012142</v>
+        <v>37.04050795509599</v>
       </c>
       <c r="H5" s="37">
-        <v>37.071986141944244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.061745919618851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="37">
-        <v>2.1959705749573928</v>
+        <v>2.0708423080167204</v>
       </c>
       <c r="C6" s="37">
-        <v>3.3460578477492464</v>
+        <v>2.8220390169181582</v>
       </c>
       <c r="D6" s="37">
-        <v>5.5713711653206479</v>
+        <v>4.0414559283024145</v>
       </c>
       <c r="E6" s="37">
-        <v>9.731922535506266</v>
+        <v>6.0020339593999941</v>
       </c>
       <c r="F6" s="37">
-        <v>16.865115551279647</v>
+        <v>9.1333191854143703</v>
       </c>
       <c r="G6" s="37">
-        <v>24.863589297431034</v>
+        <v>13.023232880562345</v>
       </c>
       <c r="H6" s="37">
-        <v>32.882289218356952</v>
+        <v>17.859249185414281</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>145</v>
       </c>
       <c r="B7" s="37">
-        <v>128.31070000000008</v>
+        <v>109.38840326727987</v>
       </c>
       <c r="C7" s="37">
-        <v>198.53630000000013</v>
+        <v>148.44494512962893</v>
       </c>
       <c r="D7" s="37">
-        <v>284.79010000000028</v>
+        <v>198.5570785531375</v>
       </c>
       <c r="E7" s="37">
-        <v>388.24640000000028</v>
+        <v>263.77653560495338</v>
       </c>
       <c r="F7" s="37">
-        <v>491.47440000000023</v>
+        <v>326.2199778240722</v>
       </c>
       <c r="G7" s="37">
-        <v>581.64420000000007</v>
+        <v>378.91614800130321</v>
       </c>
       <c r="H7" s="37">
-        <v>654.45489999999995</v>
+        <v>417.2413868631437</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>11</v>
@@ -7165,30 +7203,30 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="37">
-        <v>14.976059507550758</v>
+        <v>14.180058663936975</v>
       </c>
       <c r="C8" s="37">
-        <v>23.468437029632838</v>
+        <v>20.09539553196192</v>
       </c>
       <c r="D8" s="37">
-        <v>36.776532327222064</v>
+        <v>28.47836748468546</v>
       </c>
       <c r="E8" s="37">
-        <v>44.108713043241735</v>
+        <v>32.82236477538931</v>
       </c>
       <c r="F8" s="37">
-        <v>52.902719294470359</v>
+        <v>37.828981244379627</v>
       </c>
       <c r="G8" s="37">
-        <v>63.449996965584518</v>
+        <v>43.599290659904987</v>
       </c>
       <c r="H8" s="37">
-        <v>76.100097851746739</v>
+        <v>50.249784253159099</v>
       </c>
       <c r="L8">
         <f>L4/10</f>
@@ -7207,93 +7245,93 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="37">
-        <v>3.7139549926834903</v>
+        <v>3.5990890365964394</v>
       </c>
       <c r="C9" s="37">
-        <v>4.1899556258102022</v>
+        <v>3.9451222288178056</v>
       </c>
       <c r="D9" s="37">
-        <v>4.7269630840555239</v>
+        <v>4.3244246647009357</v>
       </c>
       <c r="E9" s="37">
-        <v>5.3327963333031878</v>
+        <v>4.7401950043706584</v>
       </c>
       <c r="F9" s="37">
-        <v>6.0162764605499675</v>
+        <v>5.1959394420423939</v>
       </c>
       <c r="G9" s="37">
-        <v>6.4493739601193036</v>
+        <v>5.5061911524250213</v>
       </c>
       <c r="H9" s="37">
-        <v>6.9136491233753352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5.8349681217851685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="37">
-        <v>2.4998014966973412</v>
+        <v>2.4635697688539961</v>
       </c>
       <c r="C10" s="37">
-        <v>2.7778878392423856</v>
+        <v>2.6720551582495462</v>
       </c>
       <c r="D10" s="37">
-        <v>3.0869094436521212</v>
+        <v>2.8981841143672331</v>
       </c>
       <c r="E10" s="37">
-        <v>3.3749145348269534</v>
+        <v>3.1068175276511161</v>
       </c>
       <c r="F10" s="37">
-        <v>3.6897901688721615</v>
+        <v>3.3304699664422821</v>
       </c>
       <c r="G10" s="37">
-        <v>4.0340433364496242</v>
+        <v>3.570222614831227</v>
       </c>
       <c r="H10" s="37">
-        <v>4.4104149275588354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.8272344887915457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>149</v>
       </c>
       <c r="B11" s="37">
-        <v>8.498698210292541E-3</v>
+        <v>7.9549764609121703E-3</v>
       </c>
       <c r="C11" s="37">
-        <v>1.30788475476538E-2</v>
+        <v>1.1115735857467501E-2</v>
       </c>
       <c r="D11" s="37">
-        <v>1.9935148743743303E-2</v>
+        <v>1.5366129162496201E-2</v>
       </c>
       <c r="E11" s="37">
-        <v>2.9602716582707501E-2</v>
+        <v>2.0816189099743202E-2</v>
       </c>
       <c r="F11" s="37">
-        <v>4.81777671435221E-2</v>
+        <v>3.0335861652847403E-2</v>
       </c>
       <c r="G11" s="37">
-        <v>7.8024264265306009E-2</v>
+        <v>4.4986597480716206E-2</v>
       </c>
       <c r="H11" s="37">
-        <v>0.11650309050212</v>
+        <v>6.3076107934866996E-2</v>
       </c>
       <c r="I11" s="38" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>141</v>
       </c>
@@ -7319,244 +7357,244 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C15">
         <f>(C4-B4)/B4</f>
-        <v>0.32391125891631239</v>
+        <v>0.24141699386387627</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:H15" si="1">(D4-C4)/C4</f>
-        <v>0.35764675948343239</v>
+        <v>0.25933348124399458</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.35517443521294179</v>
+        <v>0.27239375630862145</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.28827848867779743</v>
+        <v>0.25761166502367722</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.17456248252724132</v>
+        <v>0.20132745552381712</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.10116320286975301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.15462605672360008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:H22" si="2">(C5-B5)/B5</f>
-        <v>6.6269540034892785E-2</v>
+        <v>5.8774067023151515E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>2.5540994620139462E-2</v>
+        <v>3.5301359471612656E-2</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>6.0830922310119552E-3</v>
+        <v>1.6051339292679417E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>1.149632786325034E-3</v>
+        <v>9.1939237277013416E-3</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>6.1860162810537669E-5</v>
+        <v>2.1227613633841833E-3</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>4.1805818049488826E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5.7337130874683293E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>0.5237261764375728</v>
+        <v>0.36274935372595857</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0.66505524376043801</v>
+        <v>0.43210490856924272</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>0.74677332504487104</v>
+        <v>0.48511676630384704</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0.73296853625256519</v>
+        <v>0.52170401687087453</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0.47426142571222996</v>
+        <v>0.42590361906545948</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.3225077371172001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.37133762017493127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>145</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>0.54730899293667634</v>
+        <v>0.35704462900805145</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>0.43444851143090762</v>
+        <v>0.33758059851582251</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>0.36327210812454469</v>
+        <v>0.32846704598527804</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.26588269717375324</v>
+        <v>0.23672857055275623</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>0.18346794868664532</v>
+        <v>0.1615356929662034</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.12518082360315785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.10114438000068732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>146</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>0.56706355352022475</v>
+        <v>0.41715884314843871</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>0.56706355352022475</v>
+        <v>0.41715884314843882</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>0.19937118189341566</v>
+        <v>0.1525367383871242</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0.19937118189341566</v>
+        <v>0.15253673838712409</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>0.19937118189341566</v>
+        <v>0.15253673838712414</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.19937118189341563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.15253673838712412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>147</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>0.12816542851607937</v>
+        <v>9.6144660135610419E-2</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.12816542851607929</v>
+        <v>9.6144660135610488E-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>0.12816542851607929</v>
+        <v>9.6144660135610474E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0.12816542851607932</v>
+        <v>9.6144660135610446E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>7.198763261782444E-2</v>
+        <v>5.9710416921386456E-2</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>7.1987632617824385E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5.9710416921386428E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>0.11124336988854647</v>
+        <v>8.4627353376126757E-2</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0.11124336988854638</v>
+        <v>8.4627353376126854E-2</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>9.3298846769568178E-2</v>
+        <v>7.1987632617824329E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>9.3298846769568108E-2</v>
+        <v>7.1987632617824399E-2</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>9.3298846769568136E-2</v>
+        <v>7.1987632617824399E-2</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>9.3298846769568206E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7.1987632617824371E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>149</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>0.53892363560037526</v>
+        <v>0.3973310810014512</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0.52422823732045465</v>
+        <v>0.38237624207067722</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0.4849508756235586</v>
+        <v>0.35468008108046178</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0.62747790422941319</v>
+        <v>0.4573206223045716</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.61950768770314457</v>
+        <v>0.48295103648370069</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.49316487119922581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.40210888280459472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>141</v>
       </c>
@@ -7582,302 +7620,302 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>142</v>
       </c>
       <c r="C26">
         <f>C15/5</f>
-        <v>6.4782251783262482E-2</v>
+        <v>4.8283398772775252E-2</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:H26" si="3">D15/5</f>
-        <v>7.152935189668648E-2</v>
+        <v>5.1866696248798916E-2</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>7.1034887042588354E-2</v>
+        <v>5.4478751261724287E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>5.7655697735559487E-2</v>
+        <v>5.1522333004735445E-2</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>3.4912496505448268E-2</v>
+        <v>4.0265491104763421E-2</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>2.0232640573950602E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.0925211344720017E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:H33" si="4">C16/5</f>
-        <v>1.3253908006978557E-2</v>
+        <v>1.1754813404630303E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>5.108198924027892E-3</v>
+        <v>7.0602718943225309E-3</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>1.216618446202391E-3</v>
+        <v>3.2102678585358832E-3</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>2.299265572650068E-4</v>
+        <v>1.8387847455402684E-3</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>1.2372032562107534E-5</v>
+        <v>4.2455227267683665E-4</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>8.361163609897765E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1.1467426174936659E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
-        <v>0.10474523528751456</v>
+        <v>7.2549870745191716E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>0.13301104875208761</v>
+        <v>8.6420981713848544E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>0.14935466500897421</v>
+        <v>9.7023353260769413E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0.14659370725051304</v>
+        <v>0.10434080337417491</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>9.4852285142445994E-2</v>
+        <v>8.5180723813091899E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>6.4501547423440025E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7.4267524034986251E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>145</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>0.10946179858733526</v>
+        <v>7.140892580161029E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>8.6889702286181522E-2</v>
+        <v>6.7516119703164498E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>7.2654421624908941E-2</v>
+        <v>6.5693409197055602E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="4"/>
-        <v>5.3176539434750647E-2</v>
+        <v>4.7345714110551246E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>3.6693589737329065E-2</v>
+        <v>3.2307138593240678E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="4"/>
-        <v>2.5036164720631571E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2.0228876000137463E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>146</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>0.11341271070404495</v>
+        <v>8.3431768629687736E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>0.11341271070404495</v>
+        <v>8.3431768629687764E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>3.9874236378683134E-2</v>
+        <v>3.0507347677424839E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>3.9874236378683134E-2</v>
+        <v>3.0507347677424818E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>3.9874236378683134E-2</v>
+        <v>3.0507347677424829E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
-        <v>3.9874236378683127E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.0507347677424822E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>147</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>2.5633085703215874E-2</v>
+        <v>1.9228932027122083E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>2.5633085703215857E-2</v>
+        <v>1.9228932027122097E-2</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>2.5633085703215857E-2</v>
+        <v>1.9228932027122093E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="4"/>
-        <v>2.5633085703215864E-2</v>
+        <v>1.922893202712209E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>1.4397526523564888E-2</v>
+        <v>1.1942083384277291E-2</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
-        <v>1.4397526523564876E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1.1942083384277286E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>2.2248673977709292E-2</v>
+        <v>1.6925470675225353E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>2.2248673977709278E-2</v>
+        <v>1.692547067522537E-2</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>1.8659769353913634E-2</v>
+        <v>1.4397526523564866E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>1.865976935391362E-2</v>
+        <v>1.439752652356488E-2</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>1.8659769353913627E-2</v>
+        <v>1.439752652356488E-2</v>
       </c>
       <c r="H32">
         <f t="shared" si="4"/>
-        <v>1.8659769353913641E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1.4397526523564875E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>149</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>0.10778472712007506</v>
+        <v>7.9466216200290235E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>0.10484564746409093</v>
+        <v>7.6475248414135444E-2</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>9.6990175124711725E-2</v>
+        <v>7.0936016216092357E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>0.12549558084588264</v>
+        <v>9.1464124460914314E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>0.12390153754062891</v>
+        <v>9.6590207296740144E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>9.8632974239845156E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8.0421776560918951E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C34">
         <f>AVERAGE(C27,C32)</f>
-        <v>1.7751290992343925E-2</v>
+        <v>1.4340142039927829E-2</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:H34" si="5">AVERAGE(D27,D32)</f>
-        <v>1.3678436450868584E-2</v>
+        <v>1.199287128477395E-2</v>
       </c>
       <c r="E34">
         <f t="shared" si="5"/>
-        <v>9.9381939000580122E-3</v>
+        <v>8.8038971910503749E-3</v>
       </c>
       <c r="F34">
         <f t="shared" si="5"/>
-        <v>9.4448479555893135E-3</v>
+        <v>8.1181556345525738E-3</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>9.3360706932378665E-3</v>
+        <v>7.4110393981208578E-3</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>9.330302735137316E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7.2561003926571209E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="54" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C36">
         <f>AVERAGE(C30,C31,C33)</f>
-        <v>8.2276841175778631E-2</v>
+        <v>6.0708972285700019E-2</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:H36" si="6">AVERAGE(D30,D31,D33)</f>
-        <v>8.1297147957117247E-2</v>
+        <v>5.9711983023648441E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>5.4165832402203573E-2</v>
+        <v>4.0224098640213098E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>6.3667634309260548E-2</v>
+        <v>4.7066801388487074E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>5.9391100147625643E-2</v>
+        <v>4.6346546119480754E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
-        <v>5.0968245714031052E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4.0957069207540352E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>233</v>
       </c>
@@ -7888,31 +7926,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>155</v>
       </c>
@@ -7935,7 +7973,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="44">
         <v>1</v>
       </c>
@@ -7969,7 +8007,7 @@
         <v>448208600000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>2</v>
       </c>
@@ -7995,7 +8033,7 @@
         <v>82724099082.424347</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>3</v>
       </c>
@@ -8021,7 +8059,7 @@
         <v>178625175759.99658</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>4</v>
       </c>
@@ -8047,7 +8085,7 @@
         <v>145713870721.43866</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>5</v>
       </c>
@@ -8073,7 +8111,7 @@
         <v>13194122334.29842</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>6</v>
       </c>
@@ -8099,7 +8137,7 @@
         <v>26568777306.48951</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>7</v>
       </c>
@@ -8125,7 +8163,7 @@
         <v>203030052527.71906</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>8</v>
       </c>
@@ -8151,7 +8189,7 @@
         <v>158444498953.74481</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>9</v>
       </c>
@@ -8177,7 +8215,7 @@
         <v>40649150772.261017</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>10</v>
       </c>
@@ -8203,7 +8241,7 @@
         <v>49407914434.696442</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>11</v>
       </c>
@@ -8229,7 +8267,7 @@
         <v>187479769440.06223</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>12</v>
       </c>
@@ -8255,7 +8293,7 @@
         <v>65365061252.617935</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>13</v>
       </c>
@@ -8281,7 +8319,7 @@
         <v>63448435769.535637</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>14</v>
       </c>
@@ -8307,7 +8345,7 @@
         <v>120996790188.14453</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>15</v>
       </c>
@@ -8333,7 +8371,7 @@
         <v>47982992831.214607</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>16</v>
       </c>
@@ -8359,7 +8397,7 @@
         <v>132175534778.04134</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>17</v>
       </c>
@@ -8385,7 +8423,7 @@
         <v>412350612425.12671</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>18</v>
       </c>
@@ -8411,7 +8449,7 @@
         <v>279025793979.07227</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>19</v>
       </c>
@@ -8437,7 +8475,7 @@
         <v>59216463663.57914</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>20</v>
       </c>
@@ -8463,7 +8501,7 @@
         <v>217115847834.07663</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>21</v>
       </c>
@@ -8489,7 +8527,7 @@
         <v>85015193070.615768</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>22</v>
       </c>
@@ -8515,7 +8553,7 @@
         <v>152913488874.80106</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>23</v>
       </c>
@@ -8541,7 +8579,7 @@
         <v>257924283490.58224</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>24</v>
       </c>
@@ -8567,7 +8605,7 @@
         <v>168112080327.38989</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>25</v>
       </c>
@@ -8593,7 +8631,7 @@
         <v>101546091945.05534</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>26</v>
       </c>
@@ -8619,7 +8657,7 @@
         <v>53733370932.517632</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>27</v>
       </c>
@@ -8651,20 +8689,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.73046875" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -8672,7 +8710,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8684,7 +8722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8692,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8704,7 +8742,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8713,7 +8751,7 @@
         <v>158444498953.74481</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8721,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8729,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8741,7 +8779,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8750,7 +8788,7 @@
         <v>702544376935.99683</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="52"/>
     </row>
   </sheetData>
@@ -8759,7 +8797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8769,13 +8807,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -8879,7 +8917,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8889,134 +8927,134 @@
       </c>
       <c r="C2" s="26">
         <f>B2*(1+'IESS growth rates'!$C$26)</f>
-        <v>26304335193.845421</v>
+        <v>25896748234.939026</v>
       </c>
       <c r="D2" s="26">
         <f>C2*(1+'IESS growth rates'!$C$26)</f>
-        <v>28008389259.364449</v>
+        <v>27147131256.884754</v>
       </c>
       <c r="E2" s="26">
         <f>D2*(1+'IESS growth rates'!$C$26)</f>
-        <v>29822835784.408222</v>
+        <v>28457887020.897793</v>
       </c>
       <c r="F2" s="26">
         <f>E2*(1+'IESS growth rates'!$C$26)</f>
-        <v>31754826241.084648</v>
+        <v>29831930528.158386</v>
       </c>
       <c r="G2" s="26">
         <f>F2*(1+'IESS growth rates'!$D$26)</f>
-        <v>34026228381.701324</v>
+        <v>31379214207.377651</v>
       </c>
       <c r="H2" s="26">
         <f>G2*(1+'IESS growth rates'!$D$26)</f>
-        <v>36460102445.333054</v>
+        <v>33006750379.197708</v>
       </c>
       <c r="I2" s="26">
         <f>H2*(1+'IESS growth rates'!$D$26)</f>
-        <v>39068069943.334518</v>
+        <v>34718701475.27549</v>
       </c>
       <c r="J2" s="26">
         <f>I2*(1+'IESS growth rates'!$D$26)</f>
-        <v>41862583666.235649</v>
+        <v>36519445818.846336</v>
       </c>
       <c r="K2" s="26">
         <f>J2*(1+'IESS growth rates'!$D$26)</f>
-        <v>44856987144.602295</v>
+        <v>38413588822.306915</v>
       </c>
       <c r="L2" s="26">
         <f>BNRbI!K2*(1+'IESS growth rates'!$E$26)</f>
-        <v>48043398159.489952</v>
+        <v>40506313172.827522</v>
       </c>
       <c r="M2" s="26">
         <f>BNRbI!L2*(1+'IESS growth rates'!$E$26)</f>
-        <v>51456155520.891418</v>
+        <v>42713046532.699493</v>
       </c>
       <c r="N2" s="26">
         <f>BNRbI!M2*(1+'IESS growth rates'!$E$26)</f>
-        <v>55111337715.963799</v>
+        <v>45039999970.38488</v>
       </c>
       <c r="O2" s="26">
         <f>BNRbI!N2*(1+'IESS growth rates'!$E$26)</f>
-        <v>59026165365.383224</v>
+        <v>47493722925.599541</v>
       </c>
       <c r="P2" s="26">
         <f>BNRbI!O2*(1+'IESS growth rates'!$E$26)</f>
-        <v>63219082354.670357</v>
+        <v>50081121643.356529</v>
       </c>
       <c r="Q2" s="26">
         <f>P2*(1+'IESS growth rates'!$F$26)</f>
-        <v>66864022658.030678</v>
+        <v>52661417869.916206</v>
       </c>
       <c r="R2" s="26">
         <f>Q2*(1+'IESS growth rates'!$F$26)</f>
-        <v>70719114537.785706</v>
+        <v>55374656977.911552</v>
       </c>
       <c r="S2" s="26">
         <f>R2*(1+'IESS growth rates'!$F$26)</f>
-        <v>74796474429.702698</v>
+        <v>58227688494.750504</v>
       </c>
       <c r="T2" s="26">
         <f>S2*(1+'IESS growth rates'!$F$26)</f>
-        <v>79108917351.107147</v>
+        <v>61227714851.473038</v>
       </c>
       <c r="U2" s="26">
         <f>T2*(1+'IESS growth rates'!$F$26)</f>
-        <v>83669997178.089951</v>
+        <v>64382309565.169617</v>
       </c>
       <c r="V2" s="26">
         <f>U2*(1+'IESS growth rates'!$G$26)</f>
-        <v>86591125662.180893</v>
+        <v>66974694878.270088</v>
       </c>
       <c r="W2" s="26">
         <f>V2*(1+'IESS growth rates'!$G$26)</f>
-        <v>89614238034.264618</v>
+        <v>69671463859.13533</v>
       </c>
       <c r="X2" s="26">
         <f>W2*(1+'IESS growth rates'!$G$26)</f>
-        <v>92742894806.474304</v>
+        <v>72476819567.411194</v>
       </c>
       <c r="Y2" s="26">
         <f>X2*(1+'IESS growth rates'!$G$26)</f>
-        <v>95980780797.310501</v>
+        <v>75395134301.004333</v>
       </c>
       <c r="Z2" s="26">
         <f>Y2*(1+'IESS growth rates'!$G$26)</f>
-        <v>99331709471.486816</v>
+        <v>78430956410.543869</v>
       </c>
       <c r="AA2" s="26">
         <f>Z2*(1+'IESS growth rates'!$H$26)</f>
-        <v>101341452246.81949</v>
+        <v>80856450313.508469</v>
       </c>
       <c r="AB2" s="26">
         <f>AA2*(1+'IESS growth rates'!$H$26)</f>
-        <v>103391857425.37157</v>
+        <v>83356953128.037567</v>
       </c>
       <c r="AC2" s="26">
         <f>AB2*(1+'IESS growth rates'!$H$26)</f>
-        <v>105483747714.93225</v>
+        <v>85934784520.574051</v>
       </c>
       <c r="AD2" s="26">
         <f>AC2*(1+'IESS growth rates'!$H$26)</f>
-        <v>107617962468.84175</v>
+        <v>88592335893.735779</v>
       </c>
       <c r="AE2" s="26">
         <f>AD2*(1+'IESS growth rates'!$H$26)</f>
-        <v>109795358022.77473</v>
+        <v>91332072604.771988</v>
       </c>
       <c r="AF2" s="26">
         <f>TREND($Z$2:$AE$2,$Z$1:$AE$1,AF1)</f>
-        <v>111817647596.24414</v>
+        <v>93779699055.630859</v>
       </c>
       <c r="AG2" s="26">
         <f t="shared" ref="AG2:AH2" si="0">TREND($Z$2:$AE$2,$Z$1:$AE$1,AG1)</f>
-        <v>113910209416.58887</v>
+        <v>96359443887.183594</v>
       </c>
       <c r="AH2" s="26">
         <f t="shared" si="0"/>
-        <v>116002771236.93359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+        <v>98939188718.737305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9120,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9130,134 +9168,134 @@
       </c>
       <c r="C4" s="26">
         <f>B4*(1+'IESS growth rates'!$C$29)</f>
-        <v>104000821100.85518</v>
+        <v>100433749192.65533</v>
       </c>
       <c r="D4" s="26">
         <f>C4*(1+'IESS growth rates'!$C$29)</f>
-        <v>115384938033.11447</v>
+        <v>107605615336.7312</v>
       </c>
       <c r="E4" s="26">
         <f>D4*(1+'IESS growth rates'!$C$29)</f>
-        <v>128015180880.10739</v>
+        <v>115289616738.14847</v>
       </c>
       <c r="F4" s="26">
         <f>E4*(1+'IESS growth rates'!$C$29)</f>
-        <v>142027952825.72699</v>
+        <v>123522324425.49901</v>
       </c>
       <c r="G4" s="26">
         <f>F4*(1+'IESS growth rates'!$D$29)</f>
-        <v>154368719363.07022</v>
+        <v>131862072467.4241</v>
       </c>
       <c r="H4" s="26">
         <f>G4*(1+'IESS growth rates'!$D$29)</f>
-        <v>167781771430.82648</v>
+        <v>140764887936.44205</v>
       </c>
       <c r="I4" s="26">
         <f>H4*(1+'IESS growth rates'!$D$29)</f>
-        <v>182360279599.49911</v>
+        <v>150268786960.36139</v>
       </c>
       <c r="J4" s="26">
         <f>I4*(1+'IESS growth rates'!$D$29)</f>
-        <v>198205510002.7244</v>
+        <v>160414352368.42645</v>
       </c>
       <c r="K4" s="26">
         <f>J4*(1+'IESS growth rates'!$D$29)</f>
-        <v>215427527758.34186</v>
+        <v>171244906985.03873</v>
       </c>
       <c r="L4" s="26">
         <f>K4*(1+'IESS growth rates'!$E$29)</f>
-        <v>231079290189.70822</v>
+        <v>182494568732.51859</v>
       </c>
       <c r="M4" s="26">
         <f>L4*(1+'IESS growth rates'!$E$29)</f>
-        <v>247868222367.93597</v>
+        <v>194483259112.50412</v>
       </c>
       <c r="N4" s="26">
         <f>M4*(1+'IESS growth rates'!$E$29)</f>
-        <v>265876944703.27271</v>
+        <v>207259527435.35883</v>
       </c>
       <c r="O4" s="26">
         <f>N4*(1+'IESS growth rates'!$E$29)</f>
-        <v>285194080344.08691</v>
+        <v>220875112381.15823</v>
       </c>
       <c r="P4" s="26">
         <f>O4*(1+'IESS growth rates'!$E$29)</f>
-        <v>305914691302.33435</v>
+        <v>235385151520.25931</v>
       </c>
       <c r="Q4" s="26">
         <f>P4*(1+'IESS growth rates'!$F$29)</f>
-        <v>322182175948.04254</v>
+        <v>246529629610.00632</v>
       </c>
       <c r="R4" s="26">
         <f>Q4*(1+'IESS growth rates'!$F$29)</f>
-        <v>339314709132.51746</v>
+        <v>258201750973.30179</v>
       </c>
       <c r="S4" s="26">
         <f>R4*(1+'IESS growth rates'!$F$29)</f>
-        <v>357358291143.49377</v>
+        <v>270426497257.72751</v>
       </c>
       <c r="T4" s="26">
         <f>S4*(1+'IESS growth rates'!$F$29)</f>
-        <v>376361368404.82092</v>
+        <v>283230032884.80969</v>
       </c>
       <c r="U4" s="26">
         <f>T4*(1+'IESS growth rates'!$F$29)</f>
-        <v>396374963553.51666</v>
+        <v>296639761049.29596</v>
       </c>
       <c r="V4" s="26">
         <f>U4*(1+'IESS growth rates'!$G$29)</f>
-        <v>410919383848.29816</v>
+        <v>306223342921.78137</v>
       </c>
       <c r="W4" s="26">
         <f>V4*(1+'IESS growth rates'!$G$29)</f>
-        <v>425997491134.34363</v>
+        <v>316116542902.04083</v>
       </c>
       <c r="X4" s="26">
         <f>W4*(1+'IESS growth rates'!$G$29)</f>
-        <v>441628868303.15869</v>
+        <v>326329363865.19318</v>
       </c>
       <c r="Y4" s="26">
         <f>X4*(1+'IESS growth rates'!$G$29)</f>
-        <v>457833816812.83569</v>
+        <v>336872131850.63007</v>
       </c>
       <c r="Z4" s="26">
         <f>Y4*(1+'IESS growth rates'!$G$29)</f>
-        <v>474633383054.84137</v>
+        <v>347755506502.52887</v>
       </c>
       <c r="AA4" s="26">
         <f>Z4*(1+'IESS growth rates'!$H$29)</f>
-        <v>486516382614.91302</v>
+        <v>354790209521.93353</v>
       </c>
       <c r="AB4" s="26">
         <f>AA4*(1+'IESS growth rates'!$H$29)</f>
-        <v>498696886909.34583</v>
+        <v>361967216676.41553</v>
       </c>
       <c r="AC4" s="26">
         <f>AB4*(1+'IESS growth rates'!$H$29)</f>
-        <v>511182344315.67444</v>
+        <v>369289406618.67761</v>
       </c>
       <c r="AD4" s="26">
         <f>AC4*(1+'IESS growth rates'!$H$29)</f>
-        <v>523980389690.2403</v>
+        <v>376759716233.33118</v>
       </c>
       <c r="AE4" s="26">
         <f>AD4*(1+'IESS growth rates'!$H$29)</f>
-        <v>537098849036.90588</v>
+        <v>384381141814.86218</v>
       </c>
       <c r="AF4" s="26">
         <f>TREND($Z$4:$AE$4,$Z$1:$AE$1,AF1)</f>
-        <v>549071853457.91406</v>
+        <v>391459754891.77148</v>
       </c>
       <c r="AG4" s="26">
         <f t="shared" ref="AG4:AH4" si="1">TREND($Z$4:$AE$4,$Z$1:$AE$1,AG1)</f>
-        <v>561563419416.27344</v>
+        <v>398784294510.00391</v>
       </c>
       <c r="AH4" s="26">
         <f t="shared" si="1"/>
-        <v>574054985374.63672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+        <v>406108834128.23633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9267,134 +9305,134 @@
       </c>
       <c r="C5" s="26">
         <f>B5*(1+'IESS growth rates'!$C$34)</f>
-        <v>161257093360.80887</v>
+        <v>160716615574.18671</v>
       </c>
       <c r="D5" s="26">
         <f>C5*(1+'IESS growth rates'!$C$34)</f>
-        <v>164119614949.63614</v>
+        <v>163021314669.69702</v>
       </c>
       <c r="E5" s="26">
         <f>D5*(1+'IESS growth rates'!$C$34)</f>
-        <v>167032949992.15857</v>
+        <v>165359063477.59625</v>
       </c>
       <c r="F5" s="26">
         <f>E5*(1+'IESS growth rates'!$C$34)</f>
-        <v>169998000492.77899</v>
+        <v>167730335935.45444</v>
       </c>
       <c r="G5" s="26">
         <f>F5*(1+'IESS growth rates'!$D$34)</f>
-        <v>172323307339.29419</v>
+        <v>169741904264.88022</v>
       </c>
       <c r="H5" s="26">
         <f>G5*(1+'IESS growth rates'!$D$34)</f>
-        <v>174680420747.73822</v>
+        <v>171777597074.36133</v>
       </c>
       <c r="I5" s="26">
         <f>H5*(1+'IESS growth rates'!$D$34)</f>
-        <v>177069775782.14716</v>
+        <v>173837703685.68188</v>
       </c>
       <c r="J5" s="26">
         <f>I5*(1+'IESS growth rates'!$D$34)</f>
-        <v>179491813457.55283</v>
+        <v>175922516890.42493</v>
       </c>
       <c r="K5" s="26">
         <f>J5*(1+'IESS growth rates'!$D$34)</f>
-        <v>181946980821.38312</v>
+        <v>178032332991.58527</v>
       </c>
       <c r="L5" s="26">
         <f>K5*(1+'IESS growth rates'!$E$34)</f>
-        <v>183755205196.31616</v>
+        <v>179599711347.92606</v>
       </c>
       <c r="M5" s="26">
         <f>L5*(1+'IESS growth rates'!$E$34)</f>
-        <v>185581400055.70209</v>
+        <v>181180888742.17554</v>
       </c>
       <c r="N5" s="26">
         <f>M5*(1+'IESS growth rates'!$E$34)</f>
-        <v>187425743993.69989</v>
+        <v>182775986659.64481</v>
       </c>
       <c r="O5" s="26">
         <f>N5*(1+'IESS growth rates'!$E$34)</f>
-        <v>189288417379.37192</v>
+        <v>184385127655.18912</v>
       </c>
       <c r="P5" s="26">
         <f>O5*(1+'IESS growth rates'!$E$34)</f>
-        <v>191169602374.32321</v>
+        <v>186008435362.62411</v>
       </c>
       <c r="Q5" s="26">
         <f>P5*(1+'IESS growth rates'!$F$34)</f>
-        <v>192975170202.47916</v>
+        <v>187518480790.23752</v>
       </c>
       <c r="R5" s="26">
         <f>Q5*(1+'IESS growth rates'!$F$34)</f>
-        <v>194797791344.24554</v>
+        <v>189040785001.64755</v>
       </c>
       <c r="S5" s="26">
         <f>R5*(1+'IESS growth rates'!$F$34)</f>
-        <v>196637626865.57657</v>
+        <v>190575447515.56894</v>
       </c>
       <c r="T5" s="26">
         <f>S5*(1+'IESS growth rates'!$F$34)</f>
-        <v>198494839353.66983</v>
+        <v>192122568658.62485</v>
       </c>
       <c r="U5" s="26">
         <f>T5*(1+'IESS growth rates'!$F$34)</f>
-        <v>200369592931.33438</v>
+        <v>193682249571.90558</v>
       </c>
       <c r="V5" s="26">
         <f>U5*(1+'IESS growth rates'!$G$34)</f>
-        <v>202240257615.71661</v>
+        <v>195117636354.19965</v>
       </c>
       <c r="W5" s="26">
         <f>V5*(1+'IESS growth rates'!$G$34)</f>
-        <v>204128386957.8356</v>
+        <v>196563660844.48883</v>
       </c>
       <c r="X5" s="26">
         <f>W5*(1+'IESS growth rates'!$G$34)</f>
-        <v>206034144008.97058</v>
+        <v>198020401879.24619</v>
       </c>
       <c r="Y5" s="26">
         <f>X5*(1+'IESS growth rates'!$G$34)</f>
-        <v>207957693342.65909</v>
+        <v>199487938879.20499</v>
       </c>
       <c r="Z5" s="26">
         <f>Y5*(1+'IESS growth rates'!$G$34)</f>
-        <v>209899201068.90884</v>
+        <v>200966351853.68869</v>
       </c>
       <c r="AA5" s="26">
         <f>Z5*(1+'IESS growth rates'!$H$34)</f>
-        <v>211857624158.74521</v>
+        <v>202424583878.28513</v>
       </c>
       <c r="AB5" s="26">
         <f>AA5*(1+'IESS growth rates'!$H$34)</f>
-        <v>213834319928.89322</v>
+        <v>203893396980.84784</v>
       </c>
       <c r="AC5" s="26">
         <f>AB5*(1+'IESS growth rates'!$H$34)</f>
-        <v>215829458868.99197</v>
+        <v>205372867938.74078</v>
       </c>
       <c r="AD5" s="26">
         <f>AC5*(1+'IESS growth rates'!$H$34)</f>
-        <v>217843213059.40051</v>
+        <v>206863074086.43222</v>
       </c>
       <c r="AE5" s="26">
         <f>AD5*(1+'IESS growth rates'!$H$34)</f>
-        <v>219875756186.03973</v>
+        <v>208364093319.53705</v>
       </c>
       <c r="AF5" s="26">
         <f>TREND($Z$5:$AE$5,$Z$1:$AE$1,AF1)</f>
-        <v>221840063667.93506</v>
+        <v>209825759567.41309</v>
       </c>
       <c r="AG5" s="26">
         <f t="shared" ref="AG5:AH5" si="2">TREND($Z$5:$AE$5,$Z$1:$AE$1,AG1)</f>
-        <v>223835340274.44141</v>
+        <v>211305292393.45801</v>
       </c>
       <c r="AH5" s="26">
         <f t="shared" si="2"/>
-        <v>225830616880.94775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+        <v>212784825219.50293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9498,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -9602,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -9739,7 +9777,7 @@
         <v>368319872436.55499</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -9749,140 +9787,140 @@
       </c>
       <c r="C9" s="26">
         <f>B9*(1+'IESS growth rates'!$C$36)</f>
-        <v>760347509056.09619</v>
+        <v>745195124044.87854</v>
       </c>
       <c r="D9" s="26">
         <f>C9*(1+'IESS growth rates'!$C$36)</f>
-        <v>822906500297.10352</v>
+        <v>790435154177.95776</v>
       </c>
       <c r="E9" s="26">
         <f>D9*(1+'IESS growth rates'!$C$36)</f>
-        <v>890612647724.56409</v>
+        <v>838421660046.59033</v>
       </c>
       <c r="F9" s="26">
         <f>E9*(1+'IESS growth rates'!$C$36)</f>
-        <v>963889443090.53772</v>
+        <v>889321377370.08936</v>
       </c>
       <c r="G9" s="26">
         <f>F9*(1+'IESS growth rates'!$D$36)</f>
-        <v>1042250905759.7725</v>
+        <v>942424520358.17969</v>
       </c>
       <c r="H9" s="26">
         <f>G9*(1+'IESS growth rates'!$D$36)</f>
-        <v>1126982931853.7642</v>
+        <v>998698557318.8772</v>
       </c>
       <c r="I9" s="26">
         <f>H9*(1+'IESS growth rates'!$D$36)</f>
-        <v>1218603430009.8254</v>
+        <v>1058332828619.244</v>
       </c>
       <c r="J9" s="26">
         <f>I9*(1+'IESS growth rates'!$D$36)</f>
-        <v>1317672413360.3848</v>
+        <v>1121527980515.126</v>
       </c>
       <c r="K9" s="26">
         <f>J9*(1+'IESS growth rates'!$D$36)</f>
-        <v>1424795422508.3557</v>
+        <v>1188496640248.1919</v>
       </c>
       <c r="L9" s="26">
         <f>K9*(1+'IESS growth rates'!$E$36)</f>
-        <v>1501970652571.3701</v>
+        <v>1236302846339.0972</v>
       </c>
       <c r="M9" s="26">
         <f>L9*(1+'IESS growth rates'!$E$36)</f>
-        <v>1583326143211.5793</v>
+        <v>1286032013979.4172</v>
       </c>
       <c r="N9" s="26">
         <f>M9*(1+'IESS growth rates'!$E$36)</f>
-        <v>1669088321722.8052</v>
+        <v>1337761492564.1973</v>
       </c>
       <c r="O9" s="26">
         <f>N9*(1+'IESS growth rates'!$E$36)</f>
-        <v>1759495880021.718</v>
+        <v>1391571742798.1782</v>
       </c>
       <c r="P9" s="26">
         <f>O9*(1+'IESS growth rates'!$E$36)</f>
-        <v>1854800438971.3423</v>
+        <v>1447546461845.4255</v>
       </c>
       <c r="Q9" s="26">
         <f>P9*(1+'IESS growth rates'!$F$36)</f>
-        <v>1972891195036.4258</v>
+        <v>1515677843665.7114</v>
       </c>
       <c r="R9" s="26">
         <f>Q9*(1+'IESS growth rates'!$F$36)</f>
-        <v>2098500510173.9651</v>
+        <v>1587015951702.4561</v>
       </c>
       <c r="S9" s="26">
         <f>R9*(1+'IESS growth rates'!$F$36)</f>
-        <v>2232107073253.5181</v>
+        <v>1661711716301.5964</v>
       </c>
       <c r="T9" s="26">
         <f>S9*(1+'IESS growth rates'!$F$36)</f>
-        <v>2374220050132.5371</v>
+        <v>1739923171617.6858</v>
       </c>
       <c r="U9" s="26">
         <f>T9*(1+'IESS growth rates'!$F$36)</f>
-        <v>2525381024054.0898</v>
+        <v>1821815789967.4421</v>
       </c>
       <c r="V9" s="26">
         <f>U9*(1+'IESS growth rates'!$G$36)</f>
-        <v>2675366181364.6001</v>
+        <v>1906250659498.3665</v>
       </c>
       <c r="W9" s="26">
         <f>V9*(1+'IESS growth rates'!$G$36)</f>
-        <v>2834259122173.5962</v>
+        <v>1994598793604.0981</v>
       </c>
       <c r="X9" s="26">
         <f>W9*(1+'IESS growth rates'!$G$36)</f>
-        <v>3002588889542.9302</v>
+        <v>2087041558581.7312</v>
       </c>
       <c r="Y9" s="26">
         <f>X9*(1+'IESS growth rates'!$G$36)</f>
-        <v>3180915946983.9229</v>
+        <v>2183768726429.8125</v>
       </c>
       <c r="Z9" s="26">
         <f>Y9*(1+'IESS growth rates'!$G$36)</f>
-        <v>3369834044552.4248</v>
+        <v>2284978864423.5718</v>
       </c>
       <c r="AA9" s="26">
         <f>Z9*(1+'IESS growth rates'!$H$36)</f>
-        <v>3541588574150.6797</v>
+        <v>2378564901911.5347</v>
       </c>
       <c r="AB9" s="26">
         <f>AA9*(1+'IESS growth rates'!$H$36)</f>
-        <v>3722097130815.9961</v>
+        <v>2475983949213.7515</v>
       </c>
       <c r="AC9" s="26">
         <f>AB9*(1+'IESS growth rates'!$H$36)</f>
-        <v>3911805891950.9155</v>
+        <v>2577392995178.458</v>
       </c>
       <c r="AD9" s="26">
         <f>AC9*(1+'IESS growth rates'!$H$36)</f>
-        <v>4111183775837.4639</v>
+        <v>2682955458457.0117</v>
       </c>
       <c r="AE9" s="26">
         <f>AD9*(1+'IESS growth rates'!$H$36)</f>
-        <v>4320723600699.8857</v>
+        <v>2792841450849.7837</v>
       </c>
       <c r="AF9" s="26">
         <f>TREND($Z$9:$AE$9,$Z$1:$AE$1,AF1)</f>
-        <v>4494833051027.8125</v>
+        <v>2887508968112.25</v>
       </c>
       <c r="AG9" s="26">
         <f t="shared" ref="AG9:AH9" si="3">TREND($Z$9:$AE$9,$Z$1:$AE$1,AG1)</f>
-        <v>4684917112368.75</v>
+        <v>2989048786618.875</v>
       </c>
       <c r="AH9" s="26">
         <f t="shared" si="3"/>
-        <v>4875001173709.6875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+        <v>3090588605125.5313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="53"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="52"/>
     </row>
   </sheetData>
